--- a/covariances.xlsx
+++ b/covariances.xlsx
@@ -557,7 +557,7 @@
         <v>0.000247896928844568</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000885674717367589</v>
+        <v>0.000885674903394883</v>
       </c>
       <c r="J2" t="n">
         <v>0.00160220781313901</v>
@@ -652,7 +652,7 @@
         <v>0.00206959968365427</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0016991077057143</v>
+        <v>0.00169910330656885</v>
       </c>
       <c r="J3" t="n">
         <v>0.00137417457271703</v>
@@ -747,7 +747,7 @@
         <v>0.00036733913112307</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000885451989662963</v>
+        <v>0.000885451248625869</v>
       </c>
       <c r="J4" t="n">
         <v>0.00113751849769222</v>
@@ -842,7 +842,7 @@
         <v>0.000743389934798175</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00112575489900624</v>
+        <v>0.00112575547869832</v>
       </c>
       <c r="J5" t="n">
         <v>0.000890991080356436</v>
@@ -937,7 +937,7 @@
         <v>0.000476268275069608</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000577519683187734</v>
+        <v>0.000577519105345438</v>
       </c>
       <c r="J6" t="n">
         <v>0.00107754116563008</v>
@@ -1032,7 +1032,7 @@
         <v>-0.000333231562656196</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000703735675877982</v>
+        <v>0.000703735730658928</v>
       </c>
       <c r="J7" t="n">
         <v>0.00086219823753706</v>
@@ -1127,7 +1127,7 @@
         <v>0.00329864690888752</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00123776629578513</v>
+        <v>0.00123776628156935</v>
       </c>
       <c r="J8" t="n">
         <v>0.000858677621518949</v>
@@ -1201,94 +1201,94 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.000885674717367589</v>
+        <v>0.000885674903394883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0016991077057143</v>
+        <v>0.00169910330656885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000885451989662963</v>
+        <v>0.000885451248625869</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00112575489900624</v>
+        <v>0.00112575547869832</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000577519683187734</v>
+        <v>0.000577519105345438</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000703735675877982</v>
+        <v>0.000703735730658928</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00123776629578513</v>
+        <v>0.00123776628156935</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00254167022205961</v>
+        <v>0.00254167022787789</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000993494373450991</v>
+        <v>0.00099349386211254</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000229141793191775</v>
+        <v>0.000229139892585387</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00070374195766996</v>
+        <v>0.000703743412870216</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000842145626156517</v>
+        <v>0.000842146907636074</v>
       </c>
       <c r="N9" t="n">
-        <v>0.000966825667739418</v>
+        <v>0.000966825906592245</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000664512675610282</v>
+        <v>0.000664513285930012</v>
       </c>
       <c r="P9" t="n">
-        <v>0.000207208215054644</v>
+        <v>0.000207209056361949</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.000807831835435783</v>
+        <v>0.000807831360070435</v>
       </c>
       <c r="R9" t="n">
-        <v>0.000771923893056396</v>
+        <v>0.000771924909388003</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.00118413706349258</v>
+        <v>-0.00118413443509467</v>
       </c>
       <c r="T9" t="n">
-        <v>0.000363797783098484</v>
+        <v>0.000363793135674358</v>
       </c>
       <c r="U9" t="n">
-        <v>0.000407405606105764</v>
+        <v>0.000407403319199066</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.000534686278483991</v>
+        <v>-0.000534689959625004</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00100766758588242</v>
+        <v>0.00100766557786284</v>
       </c>
       <c r="X9" t="n">
-        <v>0.000936159297069684</v>
+        <v>0.000936156734260286</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0014837671602099</v>
+        <v>0.00148376750073447</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.00104734129571884</v>
+        <v>0.00104734244531162</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.000609535200026863</v>
+        <v>0.000609535605696452</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.000807409753650931</v>
+        <v>0.000807407397156403</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.00209587794243034</v>
+        <v>0.00209587593808492</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.00000807255365959031</v>
+        <v>-0.00000807147059493604</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0000377376255477021</v>
+        <v>0.0000377380445036812</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0.000858677621518949</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000993494373450991</v>
+        <v>0.00099349386211254</v>
       </c>
       <c r="J10" t="n">
         <v>0.00168057185662702</v>
@@ -1412,7 +1412,7 @@
         <v>0.000398777399197238</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000229141793191775</v>
+        <v>0.000229139892585387</v>
       </c>
       <c r="J11" t="n">
         <v>0.000435808709807734</v>
@@ -1507,7 +1507,7 @@
         <v>-0.000094186264902403</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00070374195766996</v>
+        <v>0.000703743412870216</v>
       </c>
       <c r="J12" t="n">
         <v>0.000725482346164002</v>
@@ -1602,7 +1602,7 @@
         <v>0.000367309340934376</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000842145626156517</v>
+        <v>0.000842146907636074</v>
       </c>
       <c r="J13" t="n">
         <v>0.00114893395453748</v>
@@ -1697,7 +1697,7 @@
         <v>0.000277479291627693</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000966825667739418</v>
+        <v>0.000966825906592245</v>
       </c>
       <c r="J14" t="n">
         <v>0.00089262378961214</v>
@@ -1792,7 +1792,7 @@
         <v>0.000105939841880318</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000664512675610282</v>
+        <v>0.000664513285930012</v>
       </c>
       <c r="J15" t="n">
         <v>0.00108331191916457</v>
@@ -1887,7 +1887,7 @@
         <v>0.000598954943453759</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000207208215054644</v>
+        <v>0.000207209056361949</v>
       </c>
       <c r="J16" t="n">
         <v>0.000357981130980168</v>
@@ -1982,7 +1982,7 @@
         <v>0.000958947172010019</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000807831835435783</v>
+        <v>0.000807831360070435</v>
       </c>
       <c r="J17" t="n">
         <v>0.00102605385665431</v>
@@ -2077,7 +2077,7 @@
         <v>0.0000320795294717138</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000771923893056396</v>
+        <v>0.000771924909388003</v>
       </c>
       <c r="J18" t="n">
         <v>0.000367778284871701</v>
@@ -2172,7 +2172,7 @@
         <v>0.000068407275225868</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.00118413706349258</v>
+        <v>-0.00118413443509467</v>
       </c>
       <c r="J19" t="n">
         <v>-0.000814965408618995</v>
@@ -2267,7 +2267,7 @@
         <v>0.000709027261548439</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000363797783098484</v>
+        <v>0.000363793135674358</v>
       </c>
       <c r="J20" t="n">
         <v>0.000799977510179117</v>
@@ -2362,7 +2362,7 @@
         <v>0.000314361492704497</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000407405606105764</v>
+        <v>0.000407403319199066</v>
       </c>
       <c r="J21" t="n">
         <v>0.00098508433395068</v>
@@ -2457,7 +2457,7 @@
         <v>-0.00155400092933124</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.000534686278483991</v>
+        <v>-0.000534689959625004</v>
       </c>
       <c r="J22" t="n">
         <v>0.00127307694349168</v>
@@ -2552,7 +2552,7 @@
         <v>-0.0000148632023224425</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00100766758588242</v>
+        <v>0.00100766557786284</v>
       </c>
       <c r="J23" t="n">
         <v>0.00070865224462863</v>
@@ -2647,7 +2647,7 @@
         <v>0.000273044076667946</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000936159297069684</v>
+        <v>0.000936156734260286</v>
       </c>
       <c r="J24" t="n">
         <v>0.000921749964066957</v>
@@ -2742,7 +2742,7 @@
         <v>0.000121910245174296</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0014837671602099</v>
+        <v>0.00148376750073447</v>
       </c>
       <c r="J25" t="n">
         <v>0.000928475060096404</v>
@@ -2837,7 +2837,7 @@
         <v>0.000514996120821409</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00104734129571884</v>
+        <v>0.00104734244531162</v>
       </c>
       <c r="J26" t="n">
         <v>0.00114604043622103</v>
@@ -2932,7 +2932,7 @@
         <v>0.0000512130190098322</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000609535200026863</v>
+        <v>0.000609535605696452</v>
       </c>
       <c r="J27" t="n">
         <v>0.000681607873271412</v>
@@ -3027,7 +3027,7 @@
         <v>0.000420525350767637</v>
       </c>
       <c r="I28" t="n">
-        <v>0.000807409753650931</v>
+        <v>0.000807407397156403</v>
       </c>
       <c r="J28" t="n">
         <v>0.00055685408579328</v>
@@ -3122,7 +3122,7 @@
         <v>0.000577568623876354</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00209587794243034</v>
+        <v>0.00209587593808492</v>
       </c>
       <c r="J29" t="n">
         <v>0.00119154588933373</v>
@@ -3217,7 +3217,7 @@
         <v>0.000218182980483126</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.00000807255365959031</v>
+        <v>-0.00000807147059493604</v>
       </c>
       <c r="J30" t="n">
         <v>0.000264376740851313</v>
@@ -3312,7 +3312,7 @@
         <v>0.000150732349369499</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0000377376255477021</v>
+        <v>0.0000377380445036812</v>
       </c>
       <c r="J31" t="n">
         <v>0.00000164895518982384</v>
